--- a/downloaded_files/MEPS402_Tutorial-35864.xlsx
+++ b/downloaded_files/MEPS402_Tutorial-35864.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Nagham mohamed zein_alabdeen kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف خالد احمد قدرى صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Khaled Ahmed Kadry Saleh</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45918.958518669</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS402_Tutorial-35864.xlsx
+++ b/downloaded_files/MEPS402_Tutorial-35864.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Nagham mohamed zein_alabdeen kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف خالد احمد قدرى صالح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Khaled Ahmed Kadry Saleh</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -254,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -982,38 +973,6 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:20">
-      <x:c r="A13" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E13" s="3">
-        <x:v>45918.958518669</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s"/>
-      <x:c r="G13" s="2" t="s"/>
-      <x:c r="H13" s="2" t="s"/>
-      <x:c r="I13" s="2" t="s"/>
-      <x:c r="J13" s="2" t="s"/>
-      <x:c r="K13" s="2" t="s"/>
-      <x:c r="L13" s="2" t="s"/>
-      <x:c r="M13" s="2" t="s"/>
-      <x:c r="N13" s="2" t="s"/>
-      <x:c r="O13" s="2" t="s"/>
-      <x:c r="P13" s="2" t="s"/>
-      <x:c r="Q13" s="2" t="s"/>
-      <x:c r="R13" s="2" t="s"/>
-      <x:c r="S13" s="2" t="s"/>
-      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS402_Tutorial-35864.xlsx
+++ b/downloaded_files/MEPS402_Tutorial-35864.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Nagham mohamed zein_alabdeen kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق محمد فوزى عريبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Farouk Mohamed Fawzy Oraiba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -554,7 +563,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.440625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.370625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45937.4320810185</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS402_Tutorial-35864.xlsx
+++ b/downloaded_files/MEPS402_Tutorial-35864.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Nagham mohamed zein_alabdeen kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1180217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد فاروق محمد فوزى عريبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Mohamed Farouk Mohamed Fawzy Oraiba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -254,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -563,7 +554,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.370625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.440625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -982,38 +973,6 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:20">
-      <x:c r="A13" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E13" s="3">
-        <x:v>45937.4320810185</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s"/>
-      <x:c r="G13" s="2" t="s"/>
-      <x:c r="H13" s="2" t="s"/>
-      <x:c r="I13" s="2" t="s"/>
-      <x:c r="J13" s="2" t="s"/>
-      <x:c r="K13" s="2" t="s"/>
-      <x:c r="L13" s="2" t="s"/>
-      <x:c r="M13" s="2" t="s"/>
-      <x:c r="N13" s="2" t="s"/>
-      <x:c r="O13" s="2" t="s"/>
-      <x:c r="P13" s="2" t="s"/>
-      <x:c r="Q13" s="2" t="s"/>
-      <x:c r="R13" s="2" t="s"/>
-      <x:c r="S13" s="2" t="s"/>
-      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
